--- a/read.values.from.wheel.to.arduino.xlsx
+++ b/read.values.from.wheel.to.arduino.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>none</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>analogread</t>
+  </si>
+  <si>
+    <t>ave V</t>
+  </si>
+  <si>
+    <t>analog write value for DAC</t>
   </si>
 </sst>
 </file>
@@ -389,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -407,7 +413,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -420,8 +426,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -439,8 +451,21 @@
         <f>5*(C3/1024)</f>
         <v>4.052734375</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f>G3*(1024/5)</f>
+        <v>819.2</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -458,8 +483,15 @@
         <f t="shared" ref="E4:E9" si="1">5*(C4/1024)</f>
         <v>0.244140625</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.12</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H9" si="2">G4*(1024/5)</f>
+        <v>24.576000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -477,8 +509,19 @@
         <f t="shared" si="1"/>
         <v>0.5859375</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>102.4</v>
+      </c>
+      <c r="N5">
+        <f>1/((1/L3)+(1/M3))</f>
+        <v>49.504950495049506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -496,8 +539,15 @@
         <f t="shared" si="1"/>
         <v>1.025390625</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0.9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>184.32000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -515,8 +565,15 @@
         <f t="shared" si="1"/>
         <v>1.611328125</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>307.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -534,8 +591,15 @@
         <f t="shared" si="1"/>
         <v>3.1640625</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>614.40000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -552,6 +616,13 @@
       <c r="E9">
         <f t="shared" si="1"/>
         <v>2.3291015625</v>
+      </c>
+      <c r="G9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>450.56000000000006</v>
       </c>
     </row>
   </sheetData>
